--- a/diaries/diary-Tianlun Li.xlsx
+++ b/diaries/diary-Tianlun Li.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/litianlun/Winter2020/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39D3AE-8238-624D-BBB0-DA459F217122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A48F3A-68CF-1547-BF89-35B65CD442AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -214,6 +214,78 @@
   </si>
   <si>
     <t>Good</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-9:00p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:00-5:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/00 - 11:30p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn about structural and behavioral model; Learn UML diagram and other diagrams. Talk with the alumni from Argentina</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>We learned about KEP, structural and behavior model, and different kinds of diagrams</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am still a little confused about those diagrams, what are the use cases of the diagrams.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relaxed</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get elasticsearch up and running on our computer, try out some features of elasticsearch</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get elasticsearch running on my computer,tried index some documents and then search them</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elasticsearch is an powerful yet complex tool, we only touched a small part of it</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excited</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try to understand the index and search functionalities</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The system is very loose coupled and reflected some architecture such as public and subscribe we learned on the other course. But it makes it very hard to trace the functionality.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the source code of indexing and searching but didn't fully understand.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish the homework. We are planning write reports, draw some graphs ourselves.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished the homework but not very confident to our work.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gooood</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +432,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -715,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -984,41 +1059,95 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:7" ht="68">
+      <c r="A17" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51">
+      <c r="A18" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85">
+      <c r="A19" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34">
+      <c r="A20" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16">
       <c r="A21" s="7"/>
